--- a/Check Sheets/DriveMotors.xlsx
+++ b/Check Sheets/DriveMotors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FRC2019\FRC2019-1322\Check Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FRC2019\Check Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B89D1C4-2B01-4140-95C3-02F07EA3FFA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A508D9-1106-43EE-9537-6BAC456B05BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8730" xr2:uid="{C60D16C9-A696-471C-B231-1A5DBD2FACA7}"/>
   </bookViews>
@@ -433,101 +433,101 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.265625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>17</v>
       </c>
